--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value66.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value66.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.856185893335968</v>
+        <v>1.623558044433594</v>
       </c>
       <c r="B1">
-        <v>1.757335248267604</v>
+        <v>1.501290678977966</v>
       </c>
       <c r="C1">
-        <v>2.104682230940523</v>
+        <v>2.000089645385742</v>
       </c>
       <c r="D1">
-        <v>2.465674958163179</v>
+        <v>1.796268939971924</v>
       </c>
       <c r="E1">
-        <v>2.093796457347378</v>
+        <v>2.869723796844482</v>
       </c>
     </row>
   </sheetData>
